--- a/outcome_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Outcome).xlsx
+++ b/outcome_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Outcome).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiput\Documents\GitHub\rpa-final-project\outcome_report\2563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B48BC77-8576-4476-AE9A-93931F85A5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A44C13-3189-4FE2-A571-BC2D9599D983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{C29C7ABB-D679-4CD4-8CF0-61D64EA63256}"/>
+    <workbookView xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{C29C7ABB-D679-4CD4-8CF0-61D64EA63256}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Report" sheetId="2" r:id="rId1"/>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>248000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>100000</v>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
